--- a/defaul.xlsx
+++ b/defaul.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thats\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS-LBM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF23A0-3371-4A02-8C7C-E1563E30C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C797964-A0CE-4A67-9467-33C183F687DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -18,30 +18,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Result!$A$1:$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Result (2)'!$A$1:$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Result (2)'!$A$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -95,28 +84,7 @@
     <t>XXXXXXXXX (เจ้าหน้าที่กรอกเอง)</t>
   </si>
   <si>
-    <t>เวลาที่ตรวจวัด</t>
-  </si>
-  <si>
-    <t>10.09</t>
-  </si>
-  <si>
     <t>ผลการตรวจวัด</t>
-  </si>
-  <si>
-    <t>น้ำหนัก</t>
-  </si>
-  <si>
-    <t>ส่วนสูง</t>
-  </si>
-  <si>
-    <t>ดัชนีมวลกาย (BMI)</t>
-  </si>
-  <si>
-    <t>กิโลกรัม</t>
-  </si>
-  <si>
-    <t>เซนติเมตร</t>
   </si>
 </sst>
 </file>
@@ -197,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,17 +179,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -238,72 +202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>414066</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>140938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>611593</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>181154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="No photo description available.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E15540E-A3DC-1274-4F03-2BB0581D92D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="414066" y="4678432"/>
-          <a:ext cx="6037610" cy="4267160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,31 +472,31 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="23.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="5.21875" defaultRowHeight="23.4" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
     <col min="5" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="5.25" style="1"/>
+    <col min="8" max="16384" width="5.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="48.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -606,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -614,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -622,7 +520,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -645,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24.45" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -669,33 +567,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="92" zoomScaleNormal="100" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="23.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="5.21875" defaultRowHeight="23.4" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
     <col min="5" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="5.25" style="1"/>
+    <col min="8" max="16384" width="5.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -703,7 +601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -711,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -719,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -727,93 +625,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11">
-        <v>55</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
-        <v>160</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
-        <v>23</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.45" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="24.45" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -822,6 +681,5 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>